--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9A1894-B08D-3949-B324-8C1FABD828DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0567ED-9C49-DA44-B405-93239DBBC355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Article Metrics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +34,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>JOURNAL_TITLE</t>
+  </si>
+  <si>
+    <t>JCR_JIF</t>
+  </si>
+  <si>
+    <t>SCOPUS_CITESCORE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,9 +423,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0567ED-9C49-DA44-B405-93239DBBC355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497515AA-1FF2-1843-B14A-AEAC8AC6FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TITLE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>SCOPUS_CITESCORE</t>
+  </si>
+  <si>
+    <t>Is he a “social danger”? The Franco regime’s judicial prosecution of homosexuality in Málaga under the Ley de vagos y maleantes</t>
   </si>
 </sst>
 </file>
@@ -87,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,20 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -450,6 +457,11 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497515AA-1FF2-1843-B14A-AEAC8AC6FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F22D73-7050-374A-980E-869C7551F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TITLE</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Is he a “social danger”? The Franco regime’s judicial prosecution of homosexuality in Málaga under the Ley de vagos y maleantes</t>
+  </si>
+  <si>
+    <t>Journal of the History of Sexuality </t>
+  </si>
+  <si>
+    <t>SciMago</t>
   </si>
 </sst>
 </file>
@@ -429,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,10 +464,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F22D73-7050-374A-980E-869C7551F676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD915BD0-2BC9-5045-9184-088C1D68846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TITLE</t>
   </si>
@@ -61,6 +61,19 @@
   </si>
   <si>
     <t>SciMago</t>
+  </si>
+  <si>
+    <t>JCR_5Year-JIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCI Journal Citation Indicator (JCI)
+</t>
+  </si>
+  <si>
+    <t>WoS Citation</t>
+  </si>
+  <si>
+    <t>20 citations</t>
   </si>
 </sst>
 </file>
@@ -435,20 +448,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,13 +477,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -477,6 +498,15 @@
       </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -486,14 +516,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD915BD0-2BC9-5045-9184-088C1D68846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E94D84-6445-694E-B421-55B6B3D3E90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>TITLE</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Journal of the History of Sexuality </t>
-  </si>
-  <si>
-    <t>SciMago</t>
   </si>
   <si>
     <t>JCR_5Year-JIF</t>
@@ -74,6 +71,33 @@
   </si>
   <si>
     <t>20 citations</t>
+  </si>
+  <si>
+    <t>SciMago Journal H-Index</t>
+  </si>
+  <si>
+    <t>SciMago Journal Rank</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>22 citations</t>
+  </si>
+  <si>
+    <t>9 citations</t>
+  </si>
+  <si>
+    <t>Cartas desde Buenos Aires: El movimiento homosexual argentino desde una perspectiva transnacional</t>
   </si>
 </sst>
 </file>
@@ -89,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,9 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,35 +507,40 @@
     <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="5" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,14 +550,31 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.66</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -516,32 +584,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="64.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E94D84-6445-694E-B421-55B6B3D3E90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC39852-16FE-094A-84D7-ADC119D536B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TITLE</t>
   </si>
@@ -82,9 +82,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Scopus</t>
-  </si>
-  <si>
     <t>Google Scholar</t>
   </si>
   <si>
@@ -98,16 +95,48 @@
   </si>
   <si>
     <t>Cartas desde Buenos Aires: El movimiento homosexual argentino desde una perspectiva transnacional</t>
+  </si>
+  <si>
+    <t>Scopus Citations</t>
+  </si>
+  <si>
+    <t>Scopus Citation Rank</t>
+  </si>
+  <si>
+    <t>12 citations</t>
+  </si>
+  <si>
+    <t>81th percentile</t>
+  </si>
+  <si>
+    <t>Scopus Filed weighted Citation Impact</t>
+  </si>
+  <si>
+    <t>PLUM METRICS</t>
+  </si>
+  <si>
+    <t>8
+Readers
+Citations/,100
+Shares, Likes &amp; Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,10 +165,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -160,8 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +603,7 @@
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -584,20 +616,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -605,16 +641,25 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -625,10 +670,24 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC39852-16FE-094A-84D7-ADC119D536B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328709D9-0908-0648-8843-C9F5401F4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>TITLE</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,6 +677,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328709D9-0908-0648-8843-C9F5401F4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA75EE3-0426-2646-BB36-95FC2FCE7C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fernandez-Galeano-Publication-Impact-20250129.xlsx
+++ b/Fernandez-Galeano-Publication-Impact-20250129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac234/Documents/GitHub/impact-factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA75EE3-0426-2646-BB36-95FC2FCE7C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2A483-A713-7742-A984-4D61336A239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
+    <workbookView xWindow="4080" yWindow="760" windowWidth="28040" windowHeight="17180" activeTab="1" xr2:uid="{8EA72906-CC93-D04F-A133-E543D55DFEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>TITLE</t>
   </si>
@@ -45,9 +45,6 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>JOURNAL_TITLE</t>
-  </si>
-  <si>
     <t>JCR_JIF</t>
   </si>
   <si>
@@ -57,16 +54,9 @@
     <t>Is he a “social danger”? The Franco regime’s judicial prosecution of homosexuality in Málaga under the Ley de vagos y maleantes</t>
   </si>
   <si>
-    <t>Journal of the History of Sexuality </t>
-  </si>
-  <si>
     <t>JCR_5Year-JIF</t>
   </si>
   <si>
-    <t xml:space="preserve">JCI Journal Citation Indicator (JCI)
-</t>
-  </si>
-  <si>
     <t>WoS Citation</t>
   </si>
   <si>
@@ -98,15 +88,6 @@
   </si>
   <si>
     <t>Scopus Citations</t>
-  </si>
-  <si>
-    <t>Scopus Citation Rank</t>
-  </si>
-  <si>
-    <t>12 citations</t>
-  </si>
-  <si>
-    <t>81th percentile</t>
   </si>
   <si>
     <t>Scopus Filed weighted Citation Impact</t>
@@ -119,6 +100,107 @@
 Readers
 Citations/,100
 Shares, Likes &amp; Comments</t>
+  </si>
+  <si>
+    <t>10 citations</t>
+  </si>
+  <si>
+    <t>17 citations</t>
+  </si>
+  <si>
+    <t>Cartas desde Buenos Aires: El movimiento homosexual argentino desde una perspectiva transnacional/Letters from Buenos Aires: The Argentine homosexual movement from a transnational perspective</t>
+  </si>
+  <si>
+    <t>,7</t>
+  </si>
+  <si>
+    <t>Publishers</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>JCR Q</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>JCR Rank</t>
+  </si>
+  <si>
+    <t>122/525</t>
+  </si>
+  <si>
+    <t>74/176</t>
+  </si>
+  <si>
+    <t>Entre el crimen y la locura: relaciones sexo-afectivas entre mujeres y disconformidad de género bajo el Franquismo</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>54/67</t>
+  </si>
+  <si>
+    <t>,3</t>
+  </si>
+  <si>
+    <t>“El Todo Poderoso nos ayude, para llegar a lo que deseamos”: homosexuality and Catholicism in Franco’s Spain (1954–1970)</t>
+  </si>
+  <si>
+    <t>Routledge Taylor &amp; Francis</t>
+  </si>
+  <si>
+    <t>50/59</t>
+  </si>
+  <si>
+    <t>6 citations</t>
+  </si>
+  <si>
+    <t>3 citations/6 views</t>
+  </si>
+  <si>
+    <t>5 reader citations/174 Shares, Likes &amp; Comments</t>
+  </si>
+  <si>
+    <t>12 citations/10 views</t>
+  </si>
+  <si>
+    <t>8 citations</t>
+  </si>
+  <si>
+    <t>4 citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCR Journal Citation Indicator (JCI)
+</t>
+  </si>
+  <si>
+    <t>LA CULTURA MATERIAL GAY DEL TARDOFRANQUISMO Y LA TRANSICIÓN A TRAVÉS DE LA MEMORIA ORAL DE SERAFÍN FERNÁNDEZ RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>0 citations/5 views</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>260/411</t>
+  </si>
+  <si>
+    <t>UNIV VALENCIA, DEPT PREHISTORIA &amp; ARQUEOLOGIA</t>
+  </si>
+  <si>
+    <t>ASOC CONTUBERNIO
+UNIV SALAMANCA</t>
   </si>
 </sst>
 </file>
@@ -169,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,9 +270,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,87 +613,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606C4FF-58DD-6141-AA62-ABF6D9597603}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="24.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>2016</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2016</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
+      <c r="K10" s="2">
+        <v>0.191</v>
       </c>
     </row>
   </sheetData>
@@ -616,81 +847,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D1DEE6-A37F-BA41-AAC9-3C8964E67CFF}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="33" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1.51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
